--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="121">
   <si>
     <t>Номер группы</t>
   </si>
@@ -22,31 +22,361 @@
     <t>Название группы</t>
   </si>
   <si>
-    <t>недорого + купить</t>
-  </si>
-  <si>
-    <t>ваз + купить</t>
-  </si>
-  <si>
-    <t>2107vaz + купить</t>
-  </si>
-  <si>
     <t>Фраза</t>
   </si>
   <si>
-    <t>купить машину недорого</t>
-  </si>
-  <si>
-    <t>купить машину ваз</t>
-  </si>
-  <si>
-    <t>купить машину 2107vaz</t>
-  </si>
-  <si>
     <t>Соответствие</t>
   </si>
   <si>
+    <t>напольная + +в</t>
+  </si>
+  <si>
+    <t>напольная + +длить</t>
+  </si>
+  <si>
+    <t>напольная + +из</t>
+  </si>
+  <si>
+    <t>напольная + +на</t>
+  </si>
+  <si>
+    <t>напольная + +с</t>
+  </si>
+  <si>
+    <t>напольная + Остальное</t>
+  </si>
+  <si>
+    <t>напольная + белый</t>
+  </si>
+  <si>
+    <t>напольная + камень</t>
+  </si>
+  <si>
+    <t>напольная + круглый</t>
+  </si>
+  <si>
+    <t>напольная + купить</t>
+  </si>
+  <si>
+    <t>напольная + матовый</t>
+  </si>
+  <si>
+    <t>напольная + москва</t>
+  </si>
+  <si>
+    <t>напольная + недорого</t>
+  </si>
+  <si>
+    <t>напольная + отдельностоящий</t>
+  </si>
+  <si>
+    <t>напольная + смотреть</t>
+  </si>
+  <si>
+    <t>напольная + спб</t>
+  </si>
+  <si>
+    <t>напольная + технический</t>
+  </si>
+  <si>
+    <t>напольная + чёрный</t>
+  </si>
+  <si>
+    <t>напольная раковина +в ванну</t>
+  </si>
+  <si>
+    <t>напольная раковина +в интерьере</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной +в спб</t>
+  </si>
+  <si>
+    <t>напольные раковины +в ванную комнату</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной круглая</t>
+  </si>
+  <si>
+    <t>напольная раковина +для мытья</t>
+  </si>
+  <si>
+    <t>напольная раковина +для туалета</t>
+  </si>
+  <si>
+    <t>напольная раковина +для уборки</t>
+  </si>
+  <si>
+    <t>опора +для раковины напольная</t>
+  </si>
+  <si>
+    <t>поручень +для раковины напольно настенный</t>
+  </si>
+  <si>
+    <t>раковина +для мытья ног напольная</t>
+  </si>
+  <si>
+    <t>раковина +для ног напольная</t>
+  </si>
+  <si>
+    <t>техническая раковина напольная +для уборки</t>
+  </si>
+  <si>
+    <t>напольная раковина +из бетона</t>
+  </si>
+  <si>
+    <t>напольная раковина +из камня</t>
+  </si>
+  <si>
+    <t>напольная раковина +на ножках</t>
+  </si>
+  <si>
+    <t>напольный унитаз биде +с раковиной +на бачке</t>
+  </si>
+  <si>
+    <t>напольная раковина +с дверцей</t>
+  </si>
+  <si>
+    <t>напольная раковина +с зеркалом</t>
+  </si>
+  <si>
+    <t>напольные раковины +с пьедесталом</t>
+  </si>
+  <si>
+    <t>раковина напольная +с золотом</t>
+  </si>
+  <si>
+    <t>напольная раковина 45 45</t>
+  </si>
+  <si>
+    <t>напольная раковина интернет магазин</t>
+  </si>
+  <si>
+    <t>напольная раковина италия</t>
+  </si>
+  <si>
+    <t>напольные квадратные раковины</t>
+  </si>
+  <si>
+    <t>напольные керамические раковины</t>
+  </si>
+  <si>
+    <t>напольные отдельные раковины</t>
+  </si>
+  <si>
+    <t>напольные раковины серые</t>
+  </si>
+  <si>
+    <t>подключение напольной раковины</t>
+  </si>
+  <si>
+    <t>прямоугольная напольная раковина</t>
+  </si>
+  <si>
+    <t>раковина ваза напольная</t>
+  </si>
+  <si>
+    <t>раковина высокая напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная 130</t>
+  </si>
+  <si>
+    <t>раковина напольная дизайнерская</t>
+  </si>
+  <si>
+    <t>раковина напольная маленькая</t>
+  </si>
+  <si>
+    <t>раковина напольная металлическая</t>
+  </si>
+  <si>
+    <t>раковина напольная мрамор</t>
+  </si>
+  <si>
+    <t>раковина напольная узкая</t>
+  </si>
+  <si>
+    <t>раковина напольная цена</t>
+  </si>
+  <si>
+    <t>раковина подвесная +или напольная</t>
+  </si>
+  <si>
+    <t>раковина хозяйственная напольная</t>
+  </si>
+  <si>
+    <t>раковина цилиндр напольная</t>
+  </si>
+  <si>
+    <t>раковина цилиндрическая напольная</t>
+  </si>
+  <si>
+    <t>раковина чаша напольная</t>
+  </si>
+  <si>
+    <t>раковины напольные моноблок</t>
+  </si>
+  <si>
+    <t>раковины напольные распродажа</t>
+  </si>
+  <si>
+    <t>современные раковины напольные</t>
+  </si>
+  <si>
+    <t>стеллаж под раковину напольный</t>
+  </si>
+  <si>
+    <t>стойка под раковину напольная</t>
+  </si>
+  <si>
+    <t>угловые напольные раковины</t>
+  </si>
+  <si>
+    <t>напольная раковина спб</t>
+  </si>
+  <si>
+    <t>раковина +для ванной напольная москва</t>
+  </si>
+  <si>
+    <t>раковина напольная искусственный камень</t>
+  </si>
+  <si>
+    <t>раковина напольная матовая</t>
+  </si>
+  <si>
+    <t>техническая раковина напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная белая</t>
+  </si>
+  <si>
+    <t>раковина напольная белая матовая</t>
+  </si>
+  <si>
+    <t>раковина круглая напольная отдельностоящая</t>
+  </si>
+  <si>
+    <t>раковина напольная круглая</t>
+  </si>
+  <si>
+    <t>купить раковину напольную +в ванну</t>
+  </si>
+  <si>
+    <t>купить черную напольную раковину</t>
+  </si>
+  <si>
+    <t>москва купить раковину напольную +в ванну</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной купить</t>
+  </si>
+  <si>
+    <t>напольные раковины купить спб</t>
+  </si>
+  <si>
+    <t>раковина +в ванную комнату напольная купить</t>
+  </si>
+  <si>
+    <t>раковина напольная купить</t>
+  </si>
+  <si>
+    <t>раковина напольная купить москва</t>
+  </si>
+  <si>
+    <t>раковина напольная отдельностоящая купить</t>
+  </si>
+  <si>
+    <t>купить напольную раковину недорого</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной недорого</t>
+  </si>
+  <si>
+    <t>напольные раковины купить +в москве недорого</t>
+  </si>
+  <si>
+    <t>раковины напольные недорого</t>
+  </si>
+  <si>
+    <t>раковина отдельностоящая напольная</t>
+  </si>
+  <si>
+    <t>раковины напольные отдельно стоящие</t>
+  </si>
+  <si>
+    <t>напольный раковина см</t>
+  </si>
+  <si>
+    <t>раковина напольная 40 см</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной черная</t>
+  </si>
+  <si>
+    <t>раковина напольная черная</t>
+  </si>
+  <si>
+    <t>раковина напольная черная матовая</t>
+  </si>
+  <si>
+    <t>+в</t>
+  </si>
+  <si>
+    <t>+длить</t>
+  </si>
+  <si>
+    <t>+из</t>
+  </si>
+  <si>
+    <t>+на</t>
+  </si>
+  <si>
+    <t>+с</t>
+  </si>
+  <si>
+    <t>Остальное</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>камень</t>
+  </si>
+  <si>
+    <t>круглый</t>
+  </si>
+  <si>
     <t>купить</t>
+  </si>
+  <si>
+    <t>матовый</t>
+  </si>
+  <si>
+    <t>москва</t>
+  </si>
+  <si>
+    <t>недорого</t>
+  </si>
+  <si>
+    <t>отдельностоящий</t>
+  </si>
+  <si>
+    <t>смотреть</t>
+  </si>
+  <si>
+    <t>спб</t>
+  </si>
+  <si>
+    <t>технический</t>
+  </si>
+  <si>
+    <t>чёрный</t>
   </si>
 </sst>
 </file>
@@ -404,38 +734,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,13 +773,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,13 +787,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,10 +804,1158 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
         <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
   <si>
     <t>Номер группы</t>
   </si>
@@ -28,27 +28,21 @@
     <t>Соответствие</t>
   </si>
   <si>
-    <t>напольная + +в</t>
-  </si>
-  <si>
     <t>напольная + +длить</t>
   </si>
   <si>
-    <t>напольная + +из</t>
-  </si>
-  <si>
-    <t>напольная + +на</t>
-  </si>
-  <si>
-    <t>напольная + +с</t>
-  </si>
-  <si>
     <t>напольная + Остальное</t>
   </si>
   <si>
     <t>напольная + белый</t>
   </si>
   <si>
+    <t>напольная + ванна</t>
+  </si>
+  <si>
+    <t>напольная + ванная</t>
+  </si>
+  <si>
     <t>напольная + камень</t>
   </si>
   <si>
@@ -82,198 +76,201 @@
     <t>напольная + чёрный</t>
   </si>
   <si>
+    <t>напольная раковина +для ванной</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной +в спб</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной круглая</t>
+  </si>
+  <si>
+    <t>напольная раковина +для мытья</t>
+  </si>
+  <si>
+    <t>напольная раковина +для туалета</t>
+  </si>
+  <si>
+    <t>напольная раковина +для уборки</t>
+  </si>
+  <si>
+    <t>опора +для раковины напольная</t>
+  </si>
+  <si>
+    <t>поручень +для раковины напольно настенный</t>
+  </si>
+  <si>
+    <t>раковина +для мытья ног напольная</t>
+  </si>
+  <si>
+    <t>раковина +для ног напольная</t>
+  </si>
+  <si>
+    <t>техническая раковина напольная +для уборки</t>
+  </si>
+  <si>
+    <t>дешевые напольные раковины</t>
+  </si>
+  <si>
+    <t>напольная раковина +в интерьере</t>
+  </si>
+  <si>
+    <t>напольная раковина +из бетона</t>
+  </si>
+  <si>
+    <t>напольная раковина +на ножках</t>
+  </si>
+  <si>
+    <t>напольная раковина +с дверцей</t>
+  </si>
+  <si>
+    <t>напольная раковина +с зеркалом</t>
+  </si>
+  <si>
+    <t>напольная раковина 45 45</t>
+  </si>
+  <si>
+    <t>напольная раковина интернет магазин</t>
+  </si>
+  <si>
+    <t>напольная раковина италия</t>
+  </si>
+  <si>
+    <t>напольные квадратные раковины</t>
+  </si>
+  <si>
+    <t>напольные керамические раковины</t>
+  </si>
+  <si>
+    <t>напольные отдельные раковины</t>
+  </si>
+  <si>
+    <t>напольные раковины +с пьедесталом</t>
+  </si>
+  <si>
+    <t>напольные раковины серые</t>
+  </si>
+  <si>
+    <t>напольный унитаз биде +с раковиной +на бачке</t>
+  </si>
+  <si>
+    <t>подключение напольной раковины</t>
+  </si>
+  <si>
+    <t>прямоугольная напольная раковина</t>
+  </si>
+  <si>
+    <t>раковина ваза напольная</t>
+  </si>
+  <si>
+    <t>раковина высокая напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная +с золотом</t>
+  </si>
+  <si>
+    <t>раковина напольная 130</t>
+  </si>
+  <si>
+    <t>раковина напольная дизайнерская</t>
+  </si>
+  <si>
+    <t>раковина напольная маленькая</t>
+  </si>
+  <si>
+    <t>раковина напольная металлическая</t>
+  </si>
+  <si>
+    <t>раковина напольная мрамор</t>
+  </si>
+  <si>
+    <t>раковина напольная узкая</t>
+  </si>
+  <si>
+    <t>раковина напольная цена</t>
+  </si>
+  <si>
+    <t>раковина подвесная +или напольная</t>
+  </si>
+  <si>
+    <t>раковина хозяйственная напольная</t>
+  </si>
+  <si>
+    <t>раковина цилиндр напольная</t>
+  </si>
+  <si>
+    <t>раковина цилиндрическая напольная</t>
+  </si>
+  <si>
+    <t>раковина чаша напольная</t>
+  </si>
+  <si>
+    <t>раковины напольные моноблок</t>
+  </si>
+  <si>
+    <t>раковины напольные распродажа</t>
+  </si>
+  <si>
+    <t>современные раковины напольные</t>
+  </si>
+  <si>
+    <t>стеллаж под раковину напольный</t>
+  </si>
+  <si>
+    <t>стойка под раковину напольная</t>
+  </si>
+  <si>
+    <t>угловые напольные раковины</t>
+  </si>
+  <si>
+    <t>напольная раковина спб</t>
+  </si>
+  <si>
+    <t>напольные раковины +в ванную комнату</t>
+  </si>
+  <si>
+    <t>раковина +для ванной напольная москва</t>
+  </si>
+  <si>
+    <t>раковина напольная матовая</t>
+  </si>
+  <si>
+    <t>техническая раковина напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная белая</t>
+  </si>
+  <si>
+    <t>раковина напольная белая матовая</t>
+  </si>
+  <si>
+    <t>купить раковину напольную +в ванну</t>
+  </si>
+  <si>
+    <t>москва купить раковину напольную +в ванну</t>
+  </si>
+  <si>
     <t>напольная раковина +в ванну</t>
   </si>
   <si>
-    <t>напольная раковина +в интерьере</t>
-  </si>
-  <si>
-    <t>напольная раковина +для ванной +в спб</t>
-  </si>
-  <si>
-    <t>напольные раковины +в ванную комнату</t>
-  </si>
-  <si>
-    <t>напольная раковина +для ванной</t>
-  </si>
-  <si>
-    <t>напольная раковина +для ванной круглая</t>
-  </si>
-  <si>
-    <t>напольная раковина +для мытья</t>
-  </si>
-  <si>
-    <t>напольная раковина +для туалета</t>
-  </si>
-  <si>
-    <t>напольная раковина +для уборки</t>
-  </si>
-  <si>
-    <t>опора +для раковины напольная</t>
-  </si>
-  <si>
-    <t>поручень +для раковины напольно настенный</t>
-  </si>
-  <si>
-    <t>раковина +для мытья ног напольная</t>
-  </si>
-  <si>
-    <t>раковина +для ног напольная</t>
-  </si>
-  <si>
-    <t>техническая раковина напольная +для уборки</t>
-  </si>
-  <si>
-    <t>напольная раковина +из бетона</t>
-  </si>
-  <si>
     <t>напольная раковина +из камня</t>
   </si>
   <si>
-    <t>напольная раковина +на ножках</t>
-  </si>
-  <si>
-    <t>напольный унитаз биде +с раковиной +на бачке</t>
-  </si>
-  <si>
-    <t>напольная раковина +с дверцей</t>
-  </si>
-  <si>
-    <t>напольная раковина +с зеркалом</t>
-  </si>
-  <si>
-    <t>напольные раковины +с пьедесталом</t>
-  </si>
-  <si>
-    <t>раковина напольная +с золотом</t>
-  </si>
-  <si>
-    <t>напольная раковина 45 45</t>
-  </si>
-  <si>
-    <t>напольная раковина интернет магазин</t>
-  </si>
-  <si>
-    <t>напольная раковина италия</t>
-  </si>
-  <si>
-    <t>напольные квадратные раковины</t>
-  </si>
-  <si>
-    <t>напольные керамические раковины</t>
-  </si>
-  <si>
-    <t>напольные отдельные раковины</t>
-  </si>
-  <si>
-    <t>напольные раковины серые</t>
-  </si>
-  <si>
-    <t>подключение напольной раковины</t>
-  </si>
-  <si>
-    <t>прямоугольная напольная раковина</t>
-  </si>
-  <si>
-    <t>раковина ваза напольная</t>
-  </si>
-  <si>
-    <t>раковина высокая напольная</t>
-  </si>
-  <si>
-    <t>раковина напольная</t>
-  </si>
-  <si>
-    <t>раковина напольная 130</t>
-  </si>
-  <si>
-    <t>раковина напольная дизайнерская</t>
-  </si>
-  <si>
-    <t>раковина напольная маленькая</t>
-  </si>
-  <si>
-    <t>раковина напольная металлическая</t>
-  </si>
-  <si>
-    <t>раковина напольная мрамор</t>
-  </si>
-  <si>
-    <t>раковина напольная узкая</t>
-  </si>
-  <si>
-    <t>раковина напольная цена</t>
-  </si>
-  <si>
-    <t>раковина подвесная +или напольная</t>
-  </si>
-  <si>
-    <t>раковина хозяйственная напольная</t>
-  </si>
-  <si>
-    <t>раковина цилиндр напольная</t>
-  </si>
-  <si>
-    <t>раковина цилиндрическая напольная</t>
-  </si>
-  <si>
-    <t>раковина чаша напольная</t>
-  </si>
-  <si>
-    <t>раковины напольные моноблок</t>
-  </si>
-  <si>
-    <t>раковины напольные распродажа</t>
-  </si>
-  <si>
-    <t>современные раковины напольные</t>
-  </si>
-  <si>
-    <t>стеллаж под раковину напольный</t>
-  </si>
-  <si>
-    <t>стойка под раковину напольная</t>
-  </si>
-  <si>
-    <t>угловые напольные раковины</t>
-  </si>
-  <si>
-    <t>напольная раковина спб</t>
-  </si>
-  <si>
-    <t>раковина +для ванной напольная москва</t>
-  </si>
-  <si>
     <t>раковина напольная искусственный камень</t>
   </si>
   <si>
-    <t>раковина напольная матовая</t>
-  </si>
-  <si>
-    <t>техническая раковина напольная</t>
-  </si>
-  <si>
-    <t>раковина напольная белая</t>
-  </si>
-  <si>
-    <t>раковина напольная белая матовая</t>
-  </si>
-  <si>
     <t>раковина круглая напольная отдельностоящая</t>
   </si>
   <si>
     <t>раковина напольная круглая</t>
   </si>
   <si>
-    <t>купить раковину напольную +в ванну</t>
-  </si>
-  <si>
     <t>купить черную напольную раковину</t>
   </si>
   <si>
-    <t>москва купить раковину напольную +в ванну</t>
-  </si>
-  <si>
     <t>напольная раковина +для ванной купить</t>
   </si>
   <si>
@@ -325,25 +322,19 @@
     <t>раковина напольная черная матовая</t>
   </si>
   <si>
-    <t>+в</t>
-  </si>
-  <si>
     <t>+длить</t>
   </si>
   <si>
-    <t>+из</t>
-  </si>
-  <si>
-    <t>+на</t>
-  </si>
-  <si>
-    <t>+с</t>
-  </si>
-  <si>
     <t>Остальное</t>
   </si>
   <si>
     <t>белый</t>
+  </si>
+  <si>
+    <t>ванна</t>
+  </si>
+  <si>
+    <t>ванная</t>
   </si>
   <si>
     <t>камень</t>
@@ -734,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -776,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -790,10 +781,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -804,108 +795,108 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -916,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -930,10 +921,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -944,1018 +935,1032 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
         <v>10</v>
       </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
         <v>13</v>
       </c>
-      <c r="B75" t="s">
-        <v>16</v>
-      </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
         <v>14</v>
       </c>
-      <c r="B79" t="s">
-        <v>17</v>
-      </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
         <v>15</v>
       </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
         <v>17</v>
       </c>
-      <c r="B84" t="s">
-        <v>20</v>
-      </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
         <v>18</v>
       </c>
-      <c r="B85" t="s">
-        <v>21</v>
-      </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="110">
   <si>
     <t>Номер группы</t>
   </si>
@@ -28,52 +28,46 @@
     <t>Соответствие</t>
   </si>
   <si>
-    <t>напольная + +длить</t>
+    <t>напольная + белый</t>
+  </si>
+  <si>
+    <t>напольная + ванная</t>
+  </si>
+  <si>
+    <t>напольная + камень</t>
+  </si>
+  <si>
+    <t>напольная + круглый</t>
+  </si>
+  <si>
+    <t>напольная + купить</t>
+  </si>
+  <si>
+    <t>напольная + мытьё</t>
+  </si>
+  <si>
+    <t>напольная + недорого</t>
+  </si>
+  <si>
+    <t>напольная + отдельностоящий</t>
+  </si>
+  <si>
+    <t>напольная + смотреть</t>
+  </si>
+  <si>
+    <t>напольная + уборка</t>
+  </si>
+  <si>
+    <t>напольная + чёрный</t>
   </si>
   <si>
     <t>напольная + Остальное</t>
   </si>
   <si>
-    <t>напольная + белый</t>
-  </si>
-  <si>
-    <t>напольная + ванна</t>
-  </si>
-  <si>
-    <t>напольная + ванная</t>
-  </si>
-  <si>
-    <t>напольная + камень</t>
-  </si>
-  <si>
-    <t>напольная + круглый</t>
-  </si>
-  <si>
-    <t>напольная + купить</t>
-  </si>
-  <si>
-    <t>напольная + матовый</t>
-  </si>
-  <si>
-    <t>напольная + москва</t>
-  </si>
-  <si>
-    <t>напольная + недорого</t>
-  </si>
-  <si>
-    <t>напольная + отдельностоящий</t>
-  </si>
-  <si>
-    <t>напольная + смотреть</t>
-  </si>
-  <si>
-    <t>напольная + спб</t>
-  </si>
-  <si>
-    <t>напольная + технический</t>
-  </si>
-  <si>
-    <t>напольная + чёрный</t>
+    <t>раковина напольная белая</t>
+  </si>
+  <si>
+    <t>раковина напольная белая матовая</t>
   </si>
   <si>
     <t>напольная раковина +для ванной</t>
@@ -85,289 +79,271 @@
     <t>напольная раковина +для ванной круглая</t>
   </si>
   <si>
+    <t>напольные раковины +в ванную комнату</t>
+  </si>
+  <si>
+    <t>напольная раковина +из камня</t>
+  </si>
+  <si>
+    <t>раковина напольная искусственный камень</t>
+  </si>
+  <si>
+    <t>раковина круглая напольная отдельностоящая</t>
+  </si>
+  <si>
+    <t>раковина напольная круглая</t>
+  </si>
+  <si>
+    <t>купить раковину напольную +в ванну</t>
+  </si>
+  <si>
+    <t>купить черную напольную раковину</t>
+  </si>
+  <si>
+    <t>москва купить раковину напольную +в ванну</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной купить</t>
+  </si>
+  <si>
+    <t>напольные раковины купить спб</t>
+  </si>
+  <si>
+    <t>раковина +в ванную комнату напольная купить</t>
+  </si>
+  <si>
+    <t>раковина напольная купить</t>
+  </si>
+  <si>
+    <t>раковина напольная купить москва</t>
+  </si>
+  <si>
+    <t>раковина напольная отдельностоящая купить</t>
+  </si>
+  <si>
     <t>напольная раковина +для мытья</t>
   </si>
   <si>
+    <t>раковина +для мытья ног напольная</t>
+  </si>
+  <si>
+    <t>купить напольную раковину недорого</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной недорого</t>
+  </si>
+  <si>
+    <t>напольные раковины купить +в москве недорого</t>
+  </si>
+  <si>
+    <t>раковины напольные недорого</t>
+  </si>
+  <si>
+    <t>раковина отдельностоящая напольная</t>
+  </si>
+  <si>
+    <t>раковины напольные отдельно стоящие</t>
+  </si>
+  <si>
+    <t>напольный раковина см</t>
+  </si>
+  <si>
+    <t>раковина напольная 40 см</t>
+  </si>
+  <si>
+    <t>напольная раковина +для уборки</t>
+  </si>
+  <si>
+    <t>техническая раковина напольная +для уборки</t>
+  </si>
+  <si>
+    <t>напольная раковина +для ванной черная</t>
+  </si>
+  <si>
+    <t>раковина напольная черная</t>
+  </si>
+  <si>
+    <t>раковина напольная черная матовая</t>
+  </si>
+  <si>
+    <t>дешевые напольные раковины</t>
+  </si>
+  <si>
+    <t>напольная раковина +в интерьере</t>
+  </si>
+  <si>
     <t>напольная раковина +для туалета</t>
   </si>
   <si>
-    <t>напольная раковина +для уборки</t>
+    <t>напольная раковина +из бетона</t>
+  </si>
+  <si>
+    <t>напольная раковина +на ножках</t>
+  </si>
+  <si>
+    <t>напольная раковина +с дверцей</t>
+  </si>
+  <si>
+    <t>напольная раковина +с зеркалом</t>
+  </si>
+  <si>
+    <t>напольная раковина 45 45</t>
+  </si>
+  <si>
+    <t>напольная раковина интернет магазин</t>
+  </si>
+  <si>
+    <t>напольная раковина италия</t>
+  </si>
+  <si>
+    <t>напольные квадратные раковины</t>
+  </si>
+  <si>
+    <t>напольные керамические раковины</t>
+  </si>
+  <si>
+    <t>напольные отдельные раковины</t>
+  </si>
+  <si>
+    <t>напольные раковины +с пьедесталом</t>
+  </si>
+  <si>
+    <t>напольные раковины серые</t>
+  </si>
+  <si>
+    <t>напольный унитаз биде +с раковиной +на бачке</t>
   </si>
   <si>
     <t>опора +для раковины напольная</t>
   </si>
   <si>
+    <t>подключение напольной раковины</t>
+  </si>
+  <si>
     <t>поручень +для раковины напольно настенный</t>
   </si>
   <si>
-    <t>раковина +для мытья ног напольная</t>
+    <t>прямоугольная напольная раковина</t>
+  </si>
+  <si>
+    <t>раковина ваза напольная</t>
+  </si>
+  <si>
+    <t>раковина высокая напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная +с золотом</t>
+  </si>
+  <si>
+    <t>раковина напольная 130</t>
+  </si>
+  <si>
+    <t>раковина напольная дизайнерская</t>
+  </si>
+  <si>
+    <t>раковина напольная маленькая</t>
+  </si>
+  <si>
+    <t>раковина напольная металлическая</t>
+  </si>
+  <si>
+    <t>раковина напольная мрамор</t>
+  </si>
+  <si>
+    <t>раковина напольная узкая</t>
+  </si>
+  <si>
+    <t>раковина напольная цена</t>
+  </si>
+  <si>
+    <t>раковина подвесная +или напольная</t>
+  </si>
+  <si>
+    <t>раковина хозяйственная напольная</t>
+  </si>
+  <si>
+    <t>раковина цилиндр напольная</t>
+  </si>
+  <si>
+    <t>раковина цилиндрическая напольная</t>
+  </si>
+  <si>
+    <t>раковина чаша напольная</t>
+  </si>
+  <si>
+    <t>раковины напольные моноблок</t>
+  </si>
+  <si>
+    <t>раковины напольные распродажа</t>
+  </si>
+  <si>
+    <t>современные раковины напольные</t>
+  </si>
+  <si>
+    <t>стеллаж под раковину напольный</t>
+  </si>
+  <si>
+    <t>стойка под раковину напольная</t>
+  </si>
+  <si>
+    <t>угловые напольные раковины</t>
+  </si>
+  <si>
+    <t>напольная раковина +в ванну</t>
+  </si>
+  <si>
+    <t>напольная раковина спб</t>
+  </si>
+  <si>
+    <t>раковина +для ванной напольная москва</t>
   </si>
   <si>
     <t>раковина +для ног напольная</t>
   </si>
   <si>
-    <t>техническая раковина напольная +для уборки</t>
-  </si>
-  <si>
-    <t>дешевые напольные раковины</t>
-  </si>
-  <si>
-    <t>напольная раковина +в интерьере</t>
-  </si>
-  <si>
-    <t>напольная раковина +из бетона</t>
-  </si>
-  <si>
-    <t>напольная раковина +на ножках</t>
-  </si>
-  <si>
-    <t>напольная раковина +с дверцей</t>
-  </si>
-  <si>
-    <t>напольная раковина +с зеркалом</t>
-  </si>
-  <si>
-    <t>напольная раковина 45 45</t>
-  </si>
-  <si>
-    <t>напольная раковина интернет магазин</t>
-  </si>
-  <si>
-    <t>напольная раковина италия</t>
-  </si>
-  <si>
-    <t>напольные квадратные раковины</t>
-  </si>
-  <si>
-    <t>напольные керамические раковины</t>
-  </si>
-  <si>
-    <t>напольные отдельные раковины</t>
-  </si>
-  <si>
-    <t>напольные раковины +с пьедесталом</t>
-  </si>
-  <si>
-    <t>напольные раковины серые</t>
-  </si>
-  <si>
-    <t>напольный унитаз биде +с раковиной +на бачке</t>
-  </si>
-  <si>
-    <t>подключение напольной раковины</t>
-  </si>
-  <si>
-    <t>прямоугольная напольная раковина</t>
-  </si>
-  <si>
-    <t>раковина ваза напольная</t>
-  </si>
-  <si>
-    <t>раковина высокая напольная</t>
-  </si>
-  <si>
-    <t>раковина напольная</t>
-  </si>
-  <si>
-    <t>раковина напольная +с золотом</t>
-  </si>
-  <si>
-    <t>раковина напольная 130</t>
-  </si>
-  <si>
-    <t>раковина напольная дизайнерская</t>
-  </si>
-  <si>
-    <t>раковина напольная маленькая</t>
-  </si>
-  <si>
-    <t>раковина напольная металлическая</t>
-  </si>
-  <si>
-    <t>раковина напольная мрамор</t>
-  </si>
-  <si>
-    <t>раковина напольная узкая</t>
-  </si>
-  <si>
-    <t>раковина напольная цена</t>
-  </si>
-  <si>
-    <t>раковина подвесная +или напольная</t>
-  </si>
-  <si>
-    <t>раковина хозяйственная напольная</t>
-  </si>
-  <si>
-    <t>раковина цилиндр напольная</t>
-  </si>
-  <si>
-    <t>раковина цилиндрическая напольная</t>
-  </si>
-  <si>
-    <t>раковина чаша напольная</t>
-  </si>
-  <si>
-    <t>раковины напольные моноблок</t>
-  </si>
-  <si>
-    <t>раковины напольные распродажа</t>
-  </si>
-  <si>
-    <t>современные раковины напольные</t>
-  </si>
-  <si>
-    <t>стеллаж под раковину напольный</t>
-  </si>
-  <si>
-    <t>стойка под раковину напольная</t>
-  </si>
-  <si>
-    <t>угловые напольные раковины</t>
-  </si>
-  <si>
-    <t>напольная раковина спб</t>
-  </si>
-  <si>
-    <t>напольные раковины +в ванную комнату</t>
-  </si>
-  <si>
-    <t>раковина +для ванной напольная москва</t>
-  </si>
-  <si>
     <t>раковина напольная матовая</t>
   </si>
   <si>
     <t>техническая раковина напольная</t>
   </si>
   <si>
-    <t>раковина напольная белая</t>
-  </si>
-  <si>
-    <t>раковина напольная белая матовая</t>
-  </si>
-  <si>
-    <t>купить раковину напольную +в ванну</t>
-  </si>
-  <si>
-    <t>москва купить раковину напольную +в ванну</t>
-  </si>
-  <si>
-    <t>напольная раковина +в ванну</t>
-  </si>
-  <si>
-    <t>напольная раковина +из камня</t>
-  </si>
-  <si>
-    <t>раковина напольная искусственный камень</t>
-  </si>
-  <si>
-    <t>раковина круглая напольная отдельностоящая</t>
-  </si>
-  <si>
-    <t>раковина напольная круглая</t>
-  </si>
-  <si>
-    <t>купить черную напольную раковину</t>
-  </si>
-  <si>
-    <t>напольная раковина +для ванной купить</t>
-  </si>
-  <si>
-    <t>напольные раковины купить спб</t>
-  </si>
-  <si>
-    <t>раковина +в ванную комнату напольная купить</t>
-  </si>
-  <si>
-    <t>раковина напольная купить</t>
-  </si>
-  <si>
-    <t>раковина напольная купить москва</t>
-  </si>
-  <si>
-    <t>раковина напольная отдельностоящая купить</t>
-  </si>
-  <si>
-    <t>купить напольную раковину недорого</t>
-  </si>
-  <si>
-    <t>напольная раковина +для ванной недорого</t>
-  </si>
-  <si>
-    <t>напольные раковины купить +в москве недорого</t>
-  </si>
-  <si>
-    <t>раковины напольные недорого</t>
-  </si>
-  <si>
-    <t>раковина отдельностоящая напольная</t>
-  </si>
-  <si>
-    <t>раковины напольные отдельно стоящие</t>
-  </si>
-  <si>
-    <t>напольный раковина см</t>
-  </si>
-  <si>
-    <t>раковина напольная 40 см</t>
-  </si>
-  <si>
-    <t>напольная раковина +для ванной черная</t>
-  </si>
-  <si>
-    <t>раковина напольная черная</t>
-  </si>
-  <si>
-    <t>раковина напольная черная матовая</t>
-  </si>
-  <si>
-    <t>+длить</t>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>ванная</t>
+  </si>
+  <si>
+    <t>камень</t>
+  </si>
+  <si>
+    <t>круглый</t>
+  </si>
+  <si>
+    <t>купить</t>
+  </si>
+  <si>
+    <t>мытьё</t>
+  </si>
+  <si>
+    <t>недорого</t>
+  </si>
+  <si>
+    <t>отдельностоящий</t>
+  </si>
+  <si>
+    <t>смотреть</t>
+  </si>
+  <si>
+    <t>уборка</t>
+  </si>
+  <si>
+    <t>чёрный</t>
   </si>
   <si>
     <t>Остальное</t>
-  </si>
-  <si>
-    <t>белый</t>
-  </si>
-  <si>
-    <t>ванна</t>
-  </si>
-  <si>
-    <t>ванная</t>
-  </si>
-  <si>
-    <t>камень</t>
-  </si>
-  <si>
-    <t>круглый</t>
-  </si>
-  <si>
-    <t>купить</t>
-  </si>
-  <si>
-    <t>матовый</t>
-  </si>
-  <si>
-    <t>москва</t>
-  </si>
-  <si>
-    <t>недорого</t>
-  </si>
-  <si>
-    <t>отдельностоящий</t>
-  </si>
-  <si>
-    <t>смотреть</t>
-  </si>
-  <si>
-    <t>спб</t>
-  </si>
-  <si>
-    <t>технический</t>
-  </si>
-  <si>
-    <t>чёрный</t>
   </si>
 </sst>
 </file>
@@ -725,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,153 +723,153 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>102</v>
@@ -901,125 +877,125 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>103</v>
@@ -1027,13 +1003,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>103</v>
@@ -1041,629 +1017,629 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
         <v>109</v>
@@ -1671,13 +1647,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
         <v>109</v>
@@ -1685,13 +1661,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
         <v>109</v>
@@ -1699,13 +1675,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
         <v>109</v>
@@ -1713,13 +1689,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
         <v>109</v>
@@ -1727,13 +1703,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
         <v>109</v>
@@ -1741,13 +1717,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
         <v>109</v>
@@ -1755,212 +1731,226 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -723,7 +723,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -28,40 +28,40 @@
     <t>Соответствие</t>
   </si>
   <si>
-    <t>напольная + белый</t>
-  </si>
-  <si>
-    <t>напольная + ванная</t>
-  </si>
-  <si>
-    <t>напольная + камень</t>
-  </si>
-  <si>
-    <t>напольная + круглый</t>
-  </si>
-  <si>
-    <t>напольная + купить</t>
-  </si>
-  <si>
-    <t>напольная + мытьё</t>
-  </si>
-  <si>
-    <t>напольная + недорого</t>
-  </si>
-  <si>
-    <t>напольная + отдельностоящий</t>
-  </si>
-  <si>
-    <t>напольная + смотреть</t>
-  </si>
-  <si>
-    <t>напольная + уборка</t>
-  </si>
-  <si>
-    <t>напольная + чёрный</t>
-  </si>
-  <si>
-    <t>напольная + Остальное</t>
+    <t>Напольная + Раковина + Белый</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Ванная</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Камень</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Круглый</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Купить</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Мытьё</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Недорого</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Отдельностоящий</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Смотреть</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Уборка</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Чёрный</t>
+  </si>
+  <si>
+    <t>Напольная + Раковина + Остальное</t>
   </si>
   <si>
     <t>раковина напольная белая</t>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
   <si>
     <t>Номер группы</t>
   </si>
@@ -290,24 +290,6 @@
   </si>
   <si>
     <t>угловые напольные раковины</t>
-  </si>
-  <si>
-    <t>напольная раковина +в ванну</t>
-  </si>
-  <si>
-    <t>напольная раковина спб</t>
-  </si>
-  <si>
-    <t>раковина +для ванной напольная москва</t>
-  </si>
-  <si>
-    <t>раковина +для ног напольная</t>
-  </si>
-  <si>
-    <t>раковина напольная матовая</t>
-  </si>
-  <si>
-    <t>техническая раковина напольная</t>
   </si>
   <si>
     <t>белый</t>
@@ -701,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -746,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -760,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -774,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -788,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -802,7 +784,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -816,7 +798,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -830,7 +812,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -844,7 +826,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -858,7 +840,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -872,7 +854,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -886,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -900,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -914,7 +896,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -928,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -942,7 +924,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -956,7 +938,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -970,7 +952,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -984,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -998,7 +980,7 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1012,7 +994,7 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1026,7 +1008,7 @@
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1040,7 +1022,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1054,7 +1036,7 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1068,7 +1050,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1082,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1096,7 +1078,7 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1110,7 +1092,7 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1124,7 +1106,7 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1138,7 +1120,7 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1152,7 +1134,7 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1166,7 +1148,7 @@
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1180,7 +1162,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1194,7 +1176,7 @@
         <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1208,7 +1190,7 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1222,7 +1204,7 @@
         <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1236,7 +1218,7 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1250,7 +1232,7 @@
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1264,7 +1246,7 @@
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1278,7 +1260,7 @@
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1292,7 +1274,7 @@
         <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1306,7 +1288,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1320,7 +1302,7 @@
         <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1334,7 +1316,7 @@
         <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1348,7 +1330,7 @@
         <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1362,7 +1344,7 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1376,7 +1358,7 @@
         <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1390,7 +1372,7 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1404,7 +1386,7 @@
         <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1418,7 +1400,7 @@
         <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1432,7 +1414,7 @@
         <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1446,7 +1428,7 @@
         <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1460,7 +1442,7 @@
         <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1474,7 +1456,7 @@
         <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1488,7 +1470,7 @@
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1502,7 +1484,7 @@
         <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1516,7 +1498,7 @@
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1530,7 +1512,7 @@
         <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1544,7 +1526,7 @@
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1558,7 +1540,7 @@
         <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1572,7 +1554,7 @@
         <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1586,7 +1568,7 @@
         <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1600,7 +1582,7 @@
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1614,7 +1596,7 @@
         <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1628,7 +1610,7 @@
         <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1642,7 +1624,7 @@
         <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1656,7 +1638,7 @@
         <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1670,7 +1652,7 @@
         <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1684,7 +1666,7 @@
         <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1698,7 +1680,7 @@
         <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1712,7 +1694,7 @@
         <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1726,7 +1708,7 @@
         <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1740,7 +1722,7 @@
         <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1754,7 +1736,7 @@
         <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1768,7 +1750,7 @@
         <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1782,175 +1764,7 @@
         <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>12</v>
-      </c>
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>12</v>
-      </c>
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>12</v>
-      </c>
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>12</v>
-      </c>
-      <c r="B82" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>12</v>
-      </c>
-      <c r="B83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>12</v>
-      </c>
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>12</v>
-      </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>12</v>
-      </c>
-      <c r="B86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>12</v>
-      </c>
-      <c r="B87" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>12</v>
-      </c>
-      <c r="B88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>12</v>
-      </c>
-      <c r="B89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="110">
   <si>
     <t>Номер группы</t>
   </si>
@@ -166,130 +166,148 @@
     <t>раковина напольная черная матовая</t>
   </si>
   <si>
+    <t>раковины напольные моноблок</t>
+  </si>
+  <si>
+    <t>напольная раковина интернет магазин</t>
+  </si>
+  <si>
+    <t>раковина напольная мрамор</t>
+  </si>
+  <si>
+    <t>раковина высокая напольная</t>
+  </si>
+  <si>
+    <t>напольная раковина +для туалета</t>
+  </si>
+  <si>
+    <t>раковина напольная +с золотом</t>
+  </si>
+  <si>
+    <t>раковина напольная узкая</t>
+  </si>
+  <si>
+    <t>напольная раковина +из бетона</t>
+  </si>
+  <si>
+    <t>стеллаж под раковину напольный</t>
+  </si>
+  <si>
+    <t>напольная раковина +на ножках</t>
+  </si>
+  <si>
+    <t>раковина цилиндрическая напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная</t>
+  </si>
+  <si>
+    <t>напольные раковины +с пьедесталом</t>
+  </si>
+  <si>
+    <t>прямоугольная напольная раковина</t>
+  </si>
+  <si>
+    <t>напольная раковина +в интерьере</t>
+  </si>
+  <si>
+    <t>опора +для раковины напольная</t>
+  </si>
+  <si>
+    <t>раковины напольные распродажа</t>
+  </si>
+  <si>
+    <t>напольная раковина спб</t>
+  </si>
+  <si>
+    <t>раковина напольная металлическая</t>
+  </si>
+  <si>
+    <t>раковина чаша напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная матовая</t>
+  </si>
+  <si>
+    <t>стойка под раковину напольная</t>
+  </si>
+  <si>
+    <t>поручень +для раковины напольно настенный</t>
+  </si>
+  <si>
+    <t>напольные раковины серые</t>
+  </si>
+  <si>
+    <t>напольный унитаз биде +с раковиной +на бачке</t>
+  </si>
+  <si>
+    <t>напольные квадратные раковины</t>
+  </si>
+  <si>
+    <t>раковина напольная 130</t>
+  </si>
+  <si>
+    <t>раковина цилиндр напольная</t>
+  </si>
+  <si>
+    <t>подключение напольной раковины</t>
+  </si>
+  <si>
+    <t>техническая раковина напольная</t>
+  </si>
+  <si>
+    <t>раковина напольная маленькая</t>
+  </si>
+  <si>
+    <t>раковина +для ног напольная</t>
+  </si>
+  <si>
+    <t>угловые напольные раковины</t>
+  </si>
+  <si>
+    <t>раковина подвесная +или напольная</t>
+  </si>
+  <si>
+    <t>напольные отдельные раковины</t>
+  </si>
+  <si>
+    <t>напольная раковина 45 45</t>
+  </si>
+  <si>
+    <t>раковина ваза напольная</t>
+  </si>
+  <si>
+    <t>современные раковины напольные</t>
+  </si>
+  <si>
+    <t>напольная раковина +с дверцей</t>
+  </si>
+  <si>
+    <t>раковина напольная дизайнерская</t>
+  </si>
+  <si>
+    <t>раковина +для ванной напольная москва</t>
+  </si>
+  <si>
+    <t>напольная раковина +в ванну</t>
+  </si>
+  <si>
+    <t>раковина хозяйственная напольная</t>
+  </si>
+  <si>
+    <t>напольные керамические раковины</t>
+  </si>
+  <si>
+    <t>напольная раковина италия</t>
+  </si>
+  <si>
+    <t>раковина напольная цена</t>
+  </si>
+  <si>
     <t>дешевые напольные раковины</t>
   </si>
   <si>
-    <t>напольная раковина +в интерьере</t>
-  </si>
-  <si>
-    <t>напольная раковина +для туалета</t>
-  </si>
-  <si>
-    <t>напольная раковина +из бетона</t>
-  </si>
-  <si>
-    <t>напольная раковина +на ножках</t>
-  </si>
-  <si>
-    <t>напольная раковина +с дверцей</t>
-  </si>
-  <si>
     <t>напольная раковина +с зеркалом</t>
-  </si>
-  <si>
-    <t>напольная раковина 45 45</t>
-  </si>
-  <si>
-    <t>напольная раковина интернет магазин</t>
-  </si>
-  <si>
-    <t>напольная раковина италия</t>
-  </si>
-  <si>
-    <t>напольные квадратные раковины</t>
-  </si>
-  <si>
-    <t>напольные керамические раковины</t>
-  </si>
-  <si>
-    <t>напольные отдельные раковины</t>
-  </si>
-  <si>
-    <t>напольные раковины +с пьедесталом</t>
-  </si>
-  <si>
-    <t>напольные раковины серые</t>
-  </si>
-  <si>
-    <t>напольный унитаз биде +с раковиной +на бачке</t>
-  </si>
-  <si>
-    <t>опора +для раковины напольная</t>
-  </si>
-  <si>
-    <t>подключение напольной раковины</t>
-  </si>
-  <si>
-    <t>поручень +для раковины напольно настенный</t>
-  </si>
-  <si>
-    <t>прямоугольная напольная раковина</t>
-  </si>
-  <si>
-    <t>раковина ваза напольная</t>
-  </si>
-  <si>
-    <t>раковина высокая напольная</t>
-  </si>
-  <si>
-    <t>раковина напольная</t>
-  </si>
-  <si>
-    <t>раковина напольная +с золотом</t>
-  </si>
-  <si>
-    <t>раковина напольная 130</t>
-  </si>
-  <si>
-    <t>раковина напольная дизайнерская</t>
-  </si>
-  <si>
-    <t>раковина напольная маленькая</t>
-  </si>
-  <si>
-    <t>раковина напольная металлическая</t>
-  </si>
-  <si>
-    <t>раковина напольная мрамор</t>
-  </si>
-  <si>
-    <t>раковина напольная узкая</t>
-  </si>
-  <si>
-    <t>раковина напольная цена</t>
-  </si>
-  <si>
-    <t>раковина подвесная +или напольная</t>
-  </si>
-  <si>
-    <t>раковина хозяйственная напольная</t>
-  </si>
-  <si>
-    <t>раковина цилиндр напольная</t>
-  </si>
-  <si>
-    <t>раковина цилиндрическая напольная</t>
-  </si>
-  <si>
-    <t>раковина чаша напольная</t>
-  </si>
-  <si>
-    <t>раковины напольные моноблок</t>
-  </si>
-  <si>
-    <t>раковины напольные распродажа</t>
-  </si>
-  <si>
-    <t>современные раковины напольные</t>
-  </si>
-  <si>
-    <t>стеллаж под раковину напольный</t>
-  </si>
-  <si>
-    <t>стойка под раковину напольная</t>
-  </si>
-  <si>
-    <t>угловые напольные раковины</t>
   </si>
   <si>
     <t>белый</t>
@@ -683,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,7 +732,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -728,7 +746,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -742,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -756,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -770,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -784,7 +802,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -798,7 +816,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -812,7 +830,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -826,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -840,7 +858,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -854,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -868,7 +886,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -882,7 +900,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -896,7 +914,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -910,7 +928,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -924,7 +942,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -938,7 +956,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -952,7 +970,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -966,7 +984,7 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -980,7 +998,7 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -994,7 +1012,7 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1008,7 +1026,7 @@
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1022,7 +1040,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1036,7 +1054,7 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1050,7 +1068,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1064,7 +1082,7 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1078,7 +1096,7 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1092,7 +1110,7 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1106,7 +1124,7 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1120,7 +1138,7 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1134,7 +1152,7 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1148,7 +1166,7 @@
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1162,7 +1180,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1176,7 +1194,7 @@
         <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1190,7 +1208,7 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1204,7 +1222,7 @@
         <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1218,7 +1236,7 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1232,7 +1250,7 @@
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1246,7 +1264,7 @@
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1260,7 +1278,7 @@
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1274,7 +1292,7 @@
         <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1288,7 +1306,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1302,7 +1320,7 @@
         <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1316,7 +1334,7 @@
         <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1330,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1344,7 +1362,7 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1358,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1372,7 +1390,7 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1386,7 +1404,7 @@
         <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1400,7 +1418,7 @@
         <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1414,7 +1432,7 @@
         <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1428,7 +1446,7 @@
         <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1442,7 +1460,7 @@
         <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1456,7 +1474,7 @@
         <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1470,7 +1488,7 @@
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1484,7 +1502,7 @@
         <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1498,7 +1516,7 @@
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1512,7 +1530,7 @@
         <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1526,7 +1544,7 @@
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1540,7 +1558,7 @@
         <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1554,7 +1572,7 @@
         <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1568,7 +1586,7 @@
         <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1582,7 +1600,7 @@
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1596,7 +1614,7 @@
         <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1610,7 +1628,7 @@
         <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1624,7 +1642,7 @@
         <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1638,7 +1656,7 @@
         <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1652,7 +1670,7 @@
         <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1666,7 +1684,7 @@
         <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1680,7 +1698,7 @@
         <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1694,7 +1712,7 @@
         <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1708,7 +1726,7 @@
         <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1722,7 +1740,7 @@
         <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1736,7 +1754,7 @@
         <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1750,7 +1768,7 @@
         <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1764,7 +1782,91 @@
         <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="91">
   <si>
     <t>Номер группы</t>
   </si>
@@ -28,13 +28,265 @@
     <t>Соответствие</t>
   </si>
   <si>
-    <t>Потолочная + Люстра + Остальное</t>
-  </si>
-  <si>
-    <t>вапвап</t>
-  </si>
-  <si>
-    <t>Остальное</t>
+    <t>Ванне + Am</t>
+  </si>
+  <si>
+    <t>Ванне + Pm</t>
+  </si>
+  <si>
+    <t>Ванне + Ванная</t>
+  </si>
+  <si>
+    <t>акриловая ванна am</t>
+  </si>
+  <si>
+    <t>ванна am</t>
+  </si>
+  <si>
+    <t>мебель +для ванной am</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны am</t>
+  </si>
+  <si>
+    <t>am pm gem ванна</t>
+  </si>
+  <si>
+    <t>am pm gem шторка +на ванну</t>
+  </si>
+  <si>
+    <t>am pm joy +для ванной</t>
+  </si>
+  <si>
+    <t>am pm joy смеситель +для ванной</t>
+  </si>
+  <si>
+    <t>am pm like ванна</t>
+  </si>
+  <si>
+    <t>am pm spirit ванна</t>
+  </si>
+  <si>
+    <t>am pm x joy смеситель +для ванны</t>
+  </si>
+  <si>
+    <t>am pm ванна 170x70</t>
+  </si>
+  <si>
+    <t>am pm ванна купить +в москве</t>
+  </si>
+  <si>
+    <t>am pm купить ванную</t>
+  </si>
+  <si>
+    <t>акриловая ванна am pm 170x70</t>
+  </si>
+  <si>
+    <t>акриловые ванны am pm gem</t>
+  </si>
+  <si>
+    <t>аксессуары +для ванной am pm</t>
+  </si>
+  <si>
+    <t>аксессуары +для ванны am pm</t>
+  </si>
+  <si>
+    <t>ванна am pm</t>
+  </si>
+  <si>
+    <t>ванна am pm 170</t>
+  </si>
+  <si>
+    <t>ванна am pm 170х70</t>
+  </si>
+  <si>
+    <t>ванна am pm inspire</t>
+  </si>
+  <si>
+    <t>ванна am pm sense</t>
+  </si>
+  <si>
+    <t>ванна am pm x joy</t>
+  </si>
+  <si>
+    <t>ванна акриловая am pm</t>
+  </si>
+  <si>
+    <t>ванная am pm</t>
+  </si>
+  <si>
+    <t>ванная am pm gem</t>
+  </si>
+  <si>
+    <t>ванная комната am pm</t>
+  </si>
+  <si>
+    <t>ванны am pm joy</t>
+  </si>
+  <si>
+    <t>ванны am pm купить</t>
+  </si>
+  <si>
+    <t>ванны am pm москва</t>
+  </si>
+  <si>
+    <t>ванны am pm отзывы</t>
+  </si>
+  <si>
+    <t>зеркало +для ванны am pm</t>
+  </si>
+  <si>
+    <t>купить смесителей +для ванной am pm</t>
+  </si>
+  <si>
+    <t>мебель +для ванной am pm</t>
+  </si>
+  <si>
+    <t>мебель ванны am pm</t>
+  </si>
+  <si>
+    <t>раковина +в ванную am pm</t>
+  </si>
+  <si>
+    <t>смесители +для ванной +с душем am pm</t>
+  </si>
+  <si>
+    <t>смесители +для ванны am pm купить</t>
+  </si>
+  <si>
+    <t>смесители +для ванны душа am pm</t>
+  </si>
+  <si>
+    <t>смеситель +для ванной am pm</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны +с душем am pm</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны am pm</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны am pm joy</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны am pm spirit</t>
+  </si>
+  <si>
+    <t>тумба +для ванной am pm</t>
+  </si>
+  <si>
+    <t>тумба +для ванны am pm</t>
+  </si>
+  <si>
+    <t>черная ванна am pm</t>
+  </si>
+  <si>
+    <t>шторка +для ванной am pm</t>
+  </si>
+  <si>
+    <t>шторка +на ванну am pm</t>
+  </si>
+  <si>
+    <t>damixa +для ванной</t>
+  </si>
+  <si>
+    <t>damixa +на борт ванны</t>
+  </si>
+  <si>
+    <t>damixa arc +для ванной</t>
+  </si>
+  <si>
+    <t>damixa arc +для ванны</t>
+  </si>
+  <si>
+    <t>damixa h2o смеситель +для ванны</t>
+  </si>
+  <si>
+    <t>damixa origin bit +для ванной</t>
+  </si>
+  <si>
+    <t>damixa origin bit смеситель +для ванны</t>
+  </si>
+  <si>
+    <t>damixa palace bit смеситель +для ванной</t>
+  </si>
+  <si>
+    <t>damixa кран +для ванной</t>
+  </si>
+  <si>
+    <t>damixa смесители +для ванной ремонт</t>
+  </si>
+  <si>
+    <t>damixa смеситель +для ванны ремонт</t>
+  </si>
+  <si>
+    <t>ванна damixa</t>
+  </si>
+  <si>
+    <t>ванна damixa origin evo</t>
+  </si>
+  <si>
+    <t>отзывы damixa смеситель +для ванной</t>
+  </si>
+  <si>
+    <t>смесители +для ванной damixa</t>
+  </si>
+  <si>
+    <t>смесители +для ванной damixa купить</t>
+  </si>
+  <si>
+    <t>смесители +для ванны damixa отзывы</t>
+  </si>
+  <si>
+    <t>смесители damixa +для ванны купить</t>
+  </si>
+  <si>
+    <t>смеситель +для ванной +с душем damixa</t>
+  </si>
+  <si>
+    <t>смеситель +для ванной damixa arc</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны damixa</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны damixa object</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны damixa object 349500000</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны damixa origin evo 2</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны damixa retro</t>
+  </si>
+  <si>
+    <t>смеситель +для ванны redblu damixa</t>
+  </si>
+  <si>
+    <t>смеситель +для раковины +в ванную damixa</t>
+  </si>
+  <si>
+    <t>смеситель +на борт ванны damixa</t>
+  </si>
+  <si>
+    <t>смеситель damixa +для ванны +и душа</t>
+  </si>
+  <si>
+    <t>смеситель damixa +для ванны +с душем</t>
+  </si>
+  <si>
+    <t>смеситель damixa arc +для ванны</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>ванная</t>
   </si>
 </sst>
 </file>
@@ -392,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +672,1130 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
